--- a/scenarios/bladder/processes/BladderMedsProphy.xlsx
+++ b/scenarios/bladder/processes/BladderMedsProphy.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="78">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -82,22 +82,28 @@
     <t xml:space="preserve">busco_plus2</t>
   </si>
   <si>
+    <t xml:space="preserve">P</t>
+  </si>
+  <si>
     <t xml:space="preserve">Wenn du deine Schmerzen besonders stark sind, kannst du Buscopan Plus mit Ibuprofen kombinieren.</t>
   </si>
   <si>
+    <t xml:space="preserve">SELECT * FROM Products WHERE PZN == '811589'</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ist es sinnvoll zwei Schmerzmittel zu kombinieren?</t>
   </si>
   <si>
     <t xml:space="preserve">In einer aktuellen Studie konnte gezeigt werden, dass die Kombination aus Ibuprofen und Paracetamol (enthalten in Buscopan Plus) effektiver als die Monotherapie ist. Es wurden zwar auch mehr Nebenwirkungen beobachtet, aber bei kurzzeitiger Anwendung (bei einer Blasenentzündung max. 7 Tage) sind Nebenwirkungen generell relativ selten. | https://www.deutsche-apotheker-zeitung.de/daz-az/2011/daz-34-2011/paracetamol-ibuprofen-oder-eine-kombination</t>
   </si>
   <si>
-    <t xml:space="preserve">some_prod</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P</t>
-  </si>
-  <si>
-    <t xml:space="preserve">show busco_plus + ibu - billigstes + ratiopharm</t>
+    <t xml:space="preserve">Add to cart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CART(); GO(aqua)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Skip</t>
   </si>
   <si>
     <t xml:space="preserve">GO(aqua)</t>
@@ -107,12 +113,6 @@
   </si>
   <si>
     <t xml:space="preserve">Du kannst Buscopan gegen deine Beschwerden beim Wasserlassen einnehmen, damit die zur Genesung äußerst wichitgen Toilettengänge weniger schmerzhaft sind. Buscopan wirkt krampflösend.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">some_prod2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">show busco_plus</t>
   </si>
   <si>
     <t xml:space="preserve">painkiller</t>
@@ -242,12 +242,6 @@
     <t xml:space="preserve">Es gibt 2 gängie Möglichkeiten: Die Inhaltsstoffe von Aqua-Libra® haben eine positiv-Bewertung der Kommission E, die von Canephron® Uno haben das leider nicht. Dennoch machen viele Patientinnen mit Canephron®Uno gute Erfahrungen. Wenn du mit einem der beiden Präparate schon gute Erfahrungen gemacht hast, empfehle ich dir, dabei zu bleiben. Andernfalls würde ich zunächst Aqua-Libra® ausprobieren.</t>
   </si>
   <si>
-    <t xml:space="preserve">some_prod6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aqua-Libra; Canephron®Uno </t>
-  </si>
-  <si>
     <t xml:space="preserve">aqua_mono</t>
   </si>
   <si>
@@ -276,9 +270,6 @@
   </si>
   <si>
     <t xml:space="preserve">Was hälst du von dem Gemisch aus Meeretischwurzel- und Kapuzinerkresse-Extrakt?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">some_prod7</t>
   </si>
   <si>
     <t xml:space="preserve">Überspringen/Weiter</t>
@@ -302,7 +293,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -349,21 +340,13 @@
       <charset val="1"/>
     </font>
     <font>
-      <i val="true"/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
+      <i val="true"/>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -378,7 +361,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -395,12 +378,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF203864"/>
         <bgColor rgb="FF333333"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -466,7 +443,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -507,27 +484,27 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -535,15 +512,7 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -553,6 +522,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -635,8 +608,8 @@
   </sheetPr>
   <dimension ref="A1:I1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3" colorId="64" zoomScale="132" zoomScaleNormal="132" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="132" zoomScaleNormal="132" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.171875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -645,6 +618,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="13.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="46.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="44.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="45.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="24.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="41.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="43.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="9.15"/>
@@ -726,24 +701,24 @@
         <v>18</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="I6" s="11" t="s">
+      <c r="F6" s="10" t="s">
         <v>21</v>
       </c>
+      <c r="H6" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>22</v>
-      </c>
       <c r="C7" s="12" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D7" s="13" t="s">
         <v>24</v>
@@ -752,91 +727,85 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="58.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="9" t="s">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C8" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="E8" s="0" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="54.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C10" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C11" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="296.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" s="0" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="296.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="2" t="s">
+      <c r="D12" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="G10" s="0" t="s">
+      <c r="G12" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="H10" s="10" t="s">
+      <c r="H12" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="I10" s="14" t="s">
+      <c r="I12" s="14" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C11" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="0" t="s">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C13" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="0" t="s">
         <v>35</v>
-      </c>
-      <c r="E11" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="G11" s="0" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C12" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E12" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="G12" s="0" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C13" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="0" t="s">
-        <v>40</v>
       </c>
       <c r="E13" s="0" t="s">
         <v>36</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -844,13 +813,13 @@
         <v>16</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E14" s="0" t="s">
         <v>36</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -858,223 +827,248 @@
         <v>16</v>
       </c>
       <c r="D15" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="G15" s="0" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C16" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="G16" s="0" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C17" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="E15" s="0" t="s">
+      <c r="E17" s="0" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="41.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C19" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" s="0" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="43.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E16" s="0" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="269.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C20" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="269.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C21" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D21" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="H17" s="15" t="s">
+      <c r="H21" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="I17" s="11" t="s">
+      <c r="I21" s="8" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+    <row r="22" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="C18" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D18" s="2" t="s">
+      <c r="C22" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E18" s="0" t="s">
+      <c r="E22" s="0" t="s">
         <v>53</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="C19" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E19" s="0" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="C20" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E20" s="0" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="C21" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E21" s="0" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="122.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="C22" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="122.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
         <v>64</v>
       </c>
-      <c r="C23" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="D23" s="11" t="s">
+      <c r="B27" s="17"/>
+      <c r="C27" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="E23" s="18" t="s">
+      <c r="E27" s="18"/>
+      <c r="F27" s="19"/>
+    </row>
+    <row r="28" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B28" s="17"/>
+      <c r="C28" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="E28" s="20" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="24" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="B24" s="19"/>
-      <c r="C24" s="16" t="s">
+      <c r="F28" s="19"/>
+    </row>
+    <row r="29" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="B29" s="17"/>
+      <c r="C29" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D24" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E24" s="20"/>
-      <c r="F24" s="21"/>
-    </row>
-    <row r="25" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="19"/>
-      <c r="C25" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="D25" s="11" t="s">
+      <c r="D29" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="E25" s="18" t="s">
+      <c r="E29" s="18"/>
+    </row>
+    <row r="30" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B30" s="17"/>
+      <c r="C30" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E30" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="F25" s="21"/>
-    </row>
-    <row r="26" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="B26" s="19"/>
-      <c r="C26" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="D26" s="2" t="s">
+    </row>
+    <row r="31" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
         <v>70</v>
       </c>
-      <c r="E26" s="20"/>
-    </row>
-    <row r="27" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="19"/>
-      <c r="C27" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="D27" s="11" t="s">
+      <c r="B31" s="17"/>
+      <c r="C31" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D31" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="E27" s="18" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="19"/>
-      <c r="C28" s="16" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="54.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
+      <c r="H31" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B29" s="19"/>
-      <c r="C29" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="D29" s="2" t="s">
+      <c r="I31" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="H29" s="2" t="s">
+    </row>
+    <row r="32" customFormat="false" ht="118.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B32" s="17"/>
+      <c r="C32" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D32" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="I29" s="2" t="s">
+      <c r="E32" s="0" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="30" customFormat="false" ht="118.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
+      <c r="H32" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B30" s="19"/>
-      <c r="C30" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="D30" s="2" t="s">
+      <c r="I32" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="E30" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="I30" s="11" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    </row>
     <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
